--- a/BHTT/Excell/sanpham.xlsx
+++ b/BHTT/Excell/sanpham.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="57">
   <si>
     <t/>
   </si>
@@ -83,9 +83,6 @@
     <t>Đồ lót</t>
   </si>
   <si>
-    <t>[B@2f272793</t>
-  </si>
-  <si>
     <t>SP004</t>
   </si>
   <si>
@@ -107,27 +104,15 @@
     <t>Áo sơ mi</t>
   </si>
   <si>
-    <t>[B@5f07623e</t>
-  </si>
-  <si>
     <t>SP005</t>
   </si>
   <si>
-    <t>[B@3f4478bb</t>
-  </si>
-  <si>
     <t>SP006</t>
   </si>
   <si>
-    <t>[B@34cbbe04</t>
-  </si>
-  <si>
     <t>SP007</t>
   </si>
   <si>
-    <t>[B@22460cb1</t>
-  </si>
-  <si>
     <t>SP009</t>
   </si>
   <si>
@@ -164,15 +149,9 @@
     <t>Xanh</t>
   </si>
   <si>
-    <t>[B@46348c55</t>
-  </si>
-  <si>
     <t>SP013</t>
   </si>
   <si>
-    <t>[B@5a29a588</t>
-  </si>
-  <si>
     <t>SP014</t>
   </si>
   <si>
@@ -185,9 +164,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>[B@33fb1b57</t>
-  </si>
-  <si>
     <t>SP015</t>
   </si>
   <si>
@@ -206,7 +182,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>[B@21caba1d</t>
+    <t>SP017</t>
   </si>
 </sst>
 </file>
@@ -251,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A4:M17"/>
+  <dimension ref="A4:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -335,16 +311,13 @@
       <c r="L5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="M5" t="s" s="0">
-        <v>23</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>25</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>15000.0</v>
@@ -353,39 +326,36 @@
         <v>60.0</v>
       </c>
       <c r="E6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s" s="0">
+      <c r="I6" t="s" s="0">
         <v>27</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>28</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s" s="0">
         <v>29</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="M6" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>15000.0</v>
@@ -394,39 +364,36 @@
         <v>60.0</v>
       </c>
       <c r="E7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s" s="0">
+      <c r="I7" t="s" s="0">
         <v>27</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>28</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s" s="0">
         <v>29</v>
-      </c>
-      <c r="L7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s" s="0">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>15000.0</v>
@@ -435,36 +402,33 @@
         <v>60.0</v>
       </c>
       <c r="E8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s" s="0">
+      <c r="I8" t="s" s="0">
         <v>27</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>28</v>
       </c>
       <c r="J8" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s" s="0">
         <v>29</v>
-      </c>
-      <c r="L8" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>15</v>
@@ -499,16 +463,13 @@
       <c r="L9" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="M9" t="s" s="0">
-        <v>37</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>15000.0</v>
@@ -517,36 +478,36 @@
         <v>60.0</v>
       </c>
       <c r="E10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s" s="0">
+      <c r="I10" t="s" s="0">
         <v>27</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>28</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s" s="0">
         <v>29</v>
-      </c>
-      <c r="L10" t="s" s="0">
-        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>15000.0</v>
@@ -555,36 +516,36 @@
         <v>60.0</v>
       </c>
       <c r="E11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F11" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s" s="0">
+      <c r="I11" t="s" s="0">
         <v>27</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>28</v>
       </c>
       <c r="J11" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s" s="0">
         <v>29</v>
-      </c>
-      <c r="L11" t="s" s="0">
-        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>1.0</v>
@@ -593,16 +554,16 @@
         <v>1.0</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="0">
         <v>19</v>
@@ -619,10 +580,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>1.0</v>
@@ -634,36 +595,33 @@
         <v>0</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s" s="0">
-        <v>49</v>
       </c>
       <c r="K13" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="M13" t="s" s="0">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>1.0</v>
@@ -672,22 +630,22 @@
         <v>1.0</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="I14" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s" s="0">
-        <v>49</v>
       </c>
       <c r="K14" t="s" s="0">
         <v>21</v>
@@ -695,16 +653,13 @@
       <c r="L14" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="M14" t="s" s="0">
-        <v>52</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>10.0</v>
@@ -713,39 +668,36 @@
         <v>10.0</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s" s="0">
         <v>18</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="K15" t="s" s="0">
-        <v>56</v>
-      </c>
       <c r="L15" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="M15" t="s" s="0">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>3.0</v>
@@ -754,36 +706,36 @@
         <v>3.0</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="K16" t="s" s="0">
-        <v>56</v>
-      </c>
       <c r="L16" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>5.0</v>
@@ -792,31 +744,66 @@
         <v>15.0</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s" s="0">
         <v>49</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>56</v>
       </c>
       <c r="L17" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="M17" t="s" s="0">
-        <v>64</v>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>15000.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/BHTT/Excell/sanpham.xlsx
+++ b/BHTT/Excell/sanpham.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="39">
   <si>
     <t/>
   </si>
@@ -98,6 +98,9 @@
     <t>Len</t>
   </si>
   <si>
+    <t>Hồng</t>
+  </si>
+  <si>
     <t>XL</t>
   </si>
   <si>
@@ -107,82 +110,25 @@
     <t>SP005</t>
   </si>
   <si>
+    <t>Xanh</t>
+  </si>
+  <si>
     <t>SP006</t>
   </si>
   <si>
+    <t>Tím</t>
+  </si>
+  <si>
     <t>SP007</t>
   </si>
   <si>
     <t>SP009</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Ao chong nang</t>
   </si>
   <si>
     <t>SP010</t>
-  </si>
-  <si>
-    <t>SP011</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2022-10-22</t>
-  </si>
-  <si>
-    <t>Chanel</t>
-  </si>
-  <si>
-    <t>SP012</t>
-  </si>
-  <si>
-    <t>tiến chó</t>
-  </si>
-  <si>
-    <t>2022-10-23</t>
-  </si>
-  <si>
-    <t>Cotton</t>
-  </si>
-  <si>
-    <t>Xanh</t>
-  </si>
-  <si>
-    <t>SP013</t>
-  </si>
-  <si>
-    <t>SP014</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>vừa sửa</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>SP015</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Quần</t>
-  </si>
-  <si>
-    <t>SP016</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>SP017</t>
   </si>
 </sst>
 </file>
@@ -227,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A4:M18"/>
+  <dimension ref="A4:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -285,7 +231,7 @@
         <v>10000.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>16</v>
@@ -323,7 +269,7 @@
         <v>15000.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>60.0</v>
+        <v>15.0</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>25</v>
@@ -341,18 +287,18 @@
         <v>27</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>24</v>
@@ -361,7 +307,7 @@
         <v>15000.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>60.0</v>
+        <v>10.0</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>25</v>
@@ -379,18 +325,18 @@
         <v>27</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>24</v>
@@ -399,7 +345,7 @@
         <v>15000.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>60.0</v>
+        <v>22.0</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>25</v>
@@ -417,18 +363,18 @@
         <v>27</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>15</v>
@@ -437,7 +383,7 @@
         <v>10000.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>16</v>
@@ -466,16 +412,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>15000.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>60.0</v>
+        <v>23.0</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>25</v>
@@ -496,15 +442,15 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>24</v>
@@ -513,7 +459,7 @@
         <v>15000.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>60.0</v>
+        <v>26.0</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>25</v>
@@ -534,276 +480,10 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="C13" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D13" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="J13" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C14" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D14" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="I14" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="J14" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="K14" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="L14" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C15" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="D15" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="J15" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="L15" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C16" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="D16" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="J16" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="K16" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="L16" t="s" s="0">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C17" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="D17" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="G17" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="L17" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C18" t="n" s="0">
-        <v>15000.0</v>
-      </c>
-      <c r="D18" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="I18" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="J18" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
